--- a/biology/Microbiologie/Acinetidae/Acinetidae.xlsx
+++ b/biology/Microbiologie/Acinetidae/Acinetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acinetidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Acinetides, composé du « a » privatif, et de « –cineti », par allusion aux cinéties (rangées de cils ayant une fonction motrice), littéralement « dépourvu de cinétie ».
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Selon Rousseau  et Schouteden, les espèces de la famille des Acinetidae : 
 « ont un corps de forme variable avec une loge et un pédoncule ou l'un d'eux seulement ou bien un bourgeon cytoplasmique adhésif. Elles sont dotées de tentacules nombreux, fasciculés ou dispersés, répandus sur tout le corps ou localisés dans une région de sa surface. Leur noyau est variable et elles ont une ou plusieurs vésicules contractiles.
-(Leur) reproduction (se fait) par embryons endogènes péritriches (parfois holotriches ou hypotriches[note 1] ou sans cils ou en forme de Sphaerophrya[note 2]) ou par gemmes[note 3] externes ciliées ou par ces deux modes à la fois; quelquefois par scissiparité ; ou encore au moyen de diverticules générateurs[1]. »
+(Leur) reproduction (se fait) par embryons endogènes péritriches (parfois holotriches ou hypotriches[note 1] ou sans cils ou en forme de Sphaerophrya[note 2]) ou par gemmes[note 3] externes ciliées ou par ces deux modes à la fois; quelquefois par scissiparité ; ou encore au moyen de diverticules générateurs. »
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de la famille des Acinetidae sont largement réparties tout autour du globe en milieu salé comme dans les eaux douces[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la famille des Acinetidae sont largement réparties tout autour du globe en milieu salé comme dans les eaux douces.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 mai 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 mai 2023) :
 Acineta Ehrenberg, 1834
 Espèce type : Acineta tuberosa Ehrenberg, 1834
 Acinetides Swarczewsky, 1928  genre type
@@ -623,7 +643,7 @@
 Pseudocorynophrya Small &amp; Lynn, 1985
 Solenophrya Claparède &amp; Lachmann, 1860
 Trematosoma Batisse, 1972
-Selon le World Register of Marine Species                               (25 mai 2023)[4] :
+Selon le World Register of Marine Species                               (25 mai 2023) :
 Acineta Ehrenberg, 1834
 Acinetides Swarczewsky, 1928
 Conchacineta Jankowski, 1978
@@ -657,9 +677,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Acinetidae Stein, 1859[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Acinetidae Stein, 1859.
 </t>
         </is>
       </c>
